--- a/biology/Botanique/Salpiglossis_sinuata/Salpiglossis_sinuata.xlsx
+++ b/biology/Botanique/Salpiglossis_sinuata/Salpiglossis_sinuata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Salpiglossis sinuata est une espèce de plantes herbacées ornementales de la famille des Solanaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Dénominations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Salpiglossis sinuata a pour autres dénominations : la langue peinte, langue tubulaire festonnée, fleur de trompette velours, palito amargo (Espagnol) et « petit bâton amer », de l’extrême amertume de ses feuilles[3] ou panza de burro (panse d'âne en espagnol).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Salpiglossis sinuata a pour autres dénominations : la langue peinte, langue tubulaire festonnée, fleur de trompette velours, palito amargo (Espagnol) et « petit bâton amer », de l’extrême amertume de ses feuilles ou panza de burro (panse d'âne en espagnol).
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une plante à fleurs appartenant à la sous-famille des Cestroideae de la famille des solanacées, originaire du sud du Chili[4],[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante à fleurs appartenant à la sous-famille des Cestroideae de la famille des solanacées, originaire du sud du Chili,.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Salpiglossis sinuata est une plante annuelle ou vivace herbacée atteignant 60 cm de haut, rarement jusqu’à 1 m de haut. Les feuilles sont longues de 4–10 cm, elliptiques à lancéolées, avec une marge ondulée, lobée ou dentée.
 Les fleurs ont une corolle en forme d’entonnoir à cinq lobes, jusqu’à 7 cm de long et 5,5 cm de diamètre, chaque lobe avec un apex cranté, de texture veloutée, violette ou orange, et a des rayures contrastées plus foncées le long de chaque pétale.
@@ -605,10 +623,12 @@
           <t>Culture et utilisations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Des deux espèces de son genre, Salpiglossis sinuata est la plus couramment cultivée comme plante ornementale pour les jardins. Il a été introduit dans l’hémisphère nord dans les années 1820.
-Un certain nombre de cultivars ont été sélectionnés pour différentes couleurs de fleurs. Il est cultivé en plein soleil[6].
+Un certain nombre de cultivars ont été sélectionnés pour différentes couleurs de fleurs. Il est cultivé en plein soleil.
 </t>
         </is>
       </c>
@@ -637,7 +657,9 @@
           <t>Gallery</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Gros plan sur la fleur du cultivar à fleurs jaunes de S. sinuata.
